--- a/medicine/Handicap/Kenny_(film,_1987)/Kenny_(film,_1987).xlsx
+++ b/medicine/Handicap/Kenny_(film,_1987)/Kenny_(film,_1987).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kenny ou Le petit frère au Québec (The Kid Brother) est un film canado-américano-japonais réalisé par Claude Gagnon, sorti en 1987[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kenny ou Le petit frère au Québec (The Kid Brother) est un film canado-américano-japonais réalisé par Claude Gagnon, sorti en 1987.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une équipe télévisée vient réaliser un reportage sur Kenny, un adolescent de treize ans amputé des jambes et du bassin à cause d'une agénésie, à Pittsburgh en Pennsylvanie.
 </t>
@@ -542,33 +556,35 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre original : Kenny ou The Kid Brother[1]
-Titre provisoire : The Skateboarder[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre original : Kenny ou The Kid Brother
+Titre provisoire : The Skateboarder
 Titre français : Kenny
-Titre québécois : Le Petit frère[1]
+Titre québécois : Le Petit frère
 Réalisation et scénario : Claude Gagnon
 Musique : François Dompierre
 Direction artistique : William Bilowit
 Costumes : Maureen Hogan
 Photographie : Yudai Koto
-Son : Louis Dupire[1]
+Son : Louis Dupire
 Montage : André Corriveau
-Production : Kiyoshi Fujimoto[1]
-Sociétés de production : Kinema America Co. ; Towa Production Co., Bandai Co. et Kinema Tokyo Co. (coproductions)[1]
-Société de distribution : Aska Film Distribution[1]
-Budget : 3 252 450 de dollars[1]
+Production : Kiyoshi Fujimoto
+Sociétés de production : Kinema America Co. ; Towa Production Co., Bandai Co. et Kinema Tokyo Co. (coproductions)
+Société de distribution : Aska Film Distribution
+Budget : 3 252 450 de dollars
 Pays de production :   Canada,  États-Unis,  Japon
 Langue originale : anglais
 Format : couleur
 Genre : biographie
 Durée : 95 minutes
 Dates de sortie :
-Canada : 28 août 1987 (Festival des films du monde, Montréal)[1]
-Japon : 3 octobre 1987[1]
-États-Unis : 18 novembre 1988[1]
-France : 18 janvier 1989[2]</t>
+Canada : 28 août 1987 (Festival des films du monde, Montréal)
+Japon : 3 octobre 1987
+États-Unis : 18 novembre 1988
+France : 18 janvier 1989</t>
         </is>
       </c>
     </row>
@@ -596,7 +612,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est commercialisé en VHS en version française par Gaumont/Colombia en 1988. En DVD par Vanguard Cinema dans une version en langue allemande et dans une seconde version en anglais (zone 1) en 2002.
 </t>
@@ -627,7 +645,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kenny Easterday (en) : Kenny
 Zach Grenier : Jesse
@@ -662,13 +682,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Claude Gagnon et l’équipe du tournage entre 28 juillet au 16 octobre 1986 à Pittsburgh et à West Aliquippa en Pennsylvanie[1].
-Musique
-La musique du film est entièrement composée par François Dompierre, y compris la chanson Soaring Baby écrite et interprétée par Daniel Lavoie[1],[3]
-Disposible Love, écrite par Stéphane Fortier et mise en musique par Rudy Toussaint, est chantée par B.B. Boom[1].
-Nécrologie
-Kenny Easterday, le jeune garçon âgé de 13 ans qui souffrait d'agénésie sacrée ou syndrome de régression caudale, maladie ayant mené à l'amputation de ses jambes et du bassin est mort le 12 février 2016, âgé de 42 ans[4].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Gagnon et l’équipe du tournage entre 28 juillet au 16 octobre 1986 à Pittsburgh et à West Aliquippa en Pennsylvanie.
 </t>
         </is>
       </c>
@@ -694,14 +714,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Festivals et sorties
-Le film est présenté le 28 août 1987 au festival des films du monde à Montréal, où il récolte le grand prix des Amériques, avant la sortie nationale au Japon à partir du 3 octobre 1987 et aux États-Unis dès le 18 novembre 1988[1].
-En France, il sort le 18 janvier 1989[2].
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique du film est entièrement composée par François Dompierre, y compris la chanson Soaring Baby écrite et interprétée par Daniel Lavoie,
+Disposible Love, écrite par Stéphane Fortier et mise en musique par Rudy Toussaint, est chantée par B.B. Boom.
 </t>
         </is>
       </c>
@@ -727,10 +752,87 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nécrologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kenny Easterday, le jeune garçon âgé de 13 ans qui souffrait d'agénésie sacrée ou syndrome de régression caudale, maladie ayant mené à l'amputation de ses jambes et du bassin est mort le 12 février 2016, âgé de 42 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kenny_(film,_1987)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kenny_(film,_1987)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Festivals et sorties</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est présenté le 28 août 1987 au festival des films du monde à Montréal, où il récolte le grand prix des Amériques, avant la sortie nationale au Japon à partir du 3 octobre 1987 et aux États-Unis dès le 18 novembre 1988.
+En France, il sort le 18 janvier 1989.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kenny_(film,_1987)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kenny_(film,_1987)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Festival du film de Paris 1988 : Prix spécial du jury
 Festival des films du monde de Montréal 1987 : Grand prix des Amériques
